--- a/verslag files/LogBoek_Crest.xlsx
+++ b/verslag files/LogBoek_Crest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladv\OneDrive\Documents\MA College\Bewijzenmap\Periode_2\Periode 2.2\BO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladv\OneDrive\Documents\MA College\Bewijzenmap\Periode_2\Periode 2.2\BO\Github\kamer\verslag files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1956603D-515A-4A03-A035-EF431FECF76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C761047B-FC87-4EF0-84C0-39C041C05973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63F5A98E-4774-4986-93AC-F59522B3556C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>De werking van het product vastgelegd in een video</t>
+  </si>
+  <si>
+    <t>Functioneel verslag</t>
+  </si>
+  <si>
+    <t>Het functionele verslag geschreven</t>
   </si>
 </sst>
 </file>
@@ -176,10 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -503,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6C9FBF-AE8A-4690-BC5A-9A59D0018749}">
-  <dimension ref="A2:H15"/>
+  <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,8 +522,7 @@
     <col min="5" max="5" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,190 +536,201 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
         <v>44885</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
         <v>44893</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
         <v>44894</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
         <v>44900</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>44901</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
         <v>44904</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
         <v>44904</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
         <v>44915</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
         <v>44936</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>44950</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>44950</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>44950</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
         <v>44950</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
